--- a/SQL-Practice/Helper_Tables.xlsx
+++ b/SQL-Practice/Helper_Tables.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\C_Workspaces_Repositories\GitHub_Repositories\SQL_Learning\SQL-Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70528ED1-2B43-4BE1-8405-DEBB3058FD38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6564D00E-4300-49CA-AE40-F1381344CB33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Projects" sheetId="1" r:id="rId1"/>
+    <sheet name="PROJECTS" sheetId="1" r:id="rId1"/>
+    <sheet name="STUDENTS_REPORT" sheetId="2" r:id="rId2"/>
+    <sheet name="GRADES_REPORT" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>task_id</t>
   </si>
@@ -34,6 +36,87 @@
   </si>
   <si>
     <t>end_date</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>marks</t>
+  </si>
+  <si>
+    <t>Samantha</t>
+  </si>
+  <si>
+    <t>Julia</t>
+  </si>
+  <si>
+    <t>Britney</t>
+  </si>
+  <si>
+    <t>Kristeen</t>
+  </si>
+  <si>
+    <t>Dyana</t>
+  </si>
+  <si>
+    <t>Jenny</t>
+  </si>
+  <si>
+    <t>Christene</t>
+  </si>
+  <si>
+    <t>Meera</t>
+  </si>
+  <si>
+    <t>Priya</t>
+  </si>
+  <si>
+    <t>Priyanka</t>
+  </si>
+  <si>
+    <t>Paige</t>
+  </si>
+  <si>
+    <t>Jane</t>
+  </si>
+  <si>
+    <t>Belvet</t>
+  </si>
+  <si>
+    <t>Scarlet</t>
+  </si>
+  <si>
+    <t>Salma</t>
+  </si>
+  <si>
+    <t>Amanda</t>
+  </si>
+  <si>
+    <t>Heraldo</t>
+  </si>
+  <si>
+    <t>Stuart</t>
+  </si>
+  <si>
+    <t>Aamina</t>
+  </si>
+  <si>
+    <t>Amina</t>
+  </si>
+  <si>
+    <t>Vivek</t>
+  </si>
+  <si>
+    <t>grade</t>
+  </si>
+  <si>
+    <t>min_mark</t>
+  </si>
+  <si>
+    <t>max_mark</t>
   </si>
 </sst>
 </file>
@@ -363,8 +446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -654,4 +737,398 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72D9DACE-DA5B-4C99-ACD2-43B7964469EE}">
+  <dimension ref="A1:C22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>32</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>31</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>41</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>51</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>61</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>71</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>81</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>76</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>91</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{284588CF-F313-4B7D-8C51-A4BA1A5238B8}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>20</v>
+      </c>
+      <c r="C4">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>30</v>
+      </c>
+      <c r="C5">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>40</v>
+      </c>
+      <c r="C6">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>50</v>
+      </c>
+      <c r="C7">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>60</v>
+      </c>
+      <c r="C8">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>70</v>
+      </c>
+      <c r="C9">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>80</v>
+      </c>
+      <c r="C10">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>90</v>
+      </c>
+      <c r="C11">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>